--- a/biology/Médecine/Aventures_de_médecine/Aventures_de_médecine.xlsx
+++ b/biology/Médecine/Aventures_de_médecine/Aventures_de_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aventures_de_m%C3%A9decine</t>
+          <t>Aventures_de_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Aventures de médecine est une émission de télévision documentaire médicale française créée sur une idée originale de Michel Cymes. Diffusée depuis le 16 janvier 2012 sur France 3 puis France 2, elle est présentée par Michel Cymes.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aventures_de_m%C3%A9decine</t>
+          <t>Aventures_de_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Concept</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chaque documentaire se penche sur l'histoire d'une révolution médicale, des pionniers aux dernières techniques actuelles, à l'aide de reportages, d'explications illustrées d'images de synthèse, et d'interviews de médecins et de patients. En fil rouge, le présentateur suit un évènement (une opération chirurgicale, la vie d'un service d'hôpital...) en lien avec le sujet du documentaire.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aventures_de_m%C3%A9decine</t>
+          <t>Aventures_de_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,11 +557,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fin 2011, l'animateur et médecin Michel Cymes tourne un documentaire de 90 minutes pour France 3 sur les greffes de visage[2]. Aventures de médecine : Un visage, une vie est diffusé le 16 janvier 2012 sur cette même chaîne[3].
-Après une bonne audience et une critique positive du premier numéro, de nouvelles émissions sont commandées et sont désormais diffusées sur France 2[4],[5].
-Le 14 octobre 2015, Michel Cymes et Emma Strack sortent le livre Aventures de médecine (Éditions du Chêne) reprenant les sujets des documentaires télévisés[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fin 2011, l'animateur et médecin Michel Cymes tourne un documentaire de 90 minutes pour France 3 sur les greffes de visage. Aventures de médecine : Un visage, une vie est diffusé le 16 janvier 2012 sur cette même chaîne.
+Après une bonne audience et une critique positive du premier numéro, de nouvelles émissions sont commandées et sont désormais diffusées sur France 2,.
+Le 14 octobre 2015, Michel Cymes et Emma Strack sortent le livre Aventures de médecine (Éditions du Chêne) reprenant les sujets des documentaires télévisés.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Aventures_de_m%C3%A9decine</t>
+          <t>Aventures_de_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,6 +593,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -584,7 +602,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Aventures_de_m%C3%A9decine</t>
+          <t>Aventures_de_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -602,10 +620,12 @@
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les huit émissions sont suivies en moyenne par 2,64 millions de téléspectateurs, soit 10,8 % de part d'audience. Les épisodes Donner la vie et Les premiers pas de la pédiatrie réalisent le meilleur score de l'émission en attirant 2,98 millions de téléspectateurs[12],[20] tandis que l'épisode Greffe : La deuxième chance réalise le pire score avec 2,24 millions de téléspectateurs[22].
-En 2014, le deuxième numéro Au cœur de l'homme se place à la troisième position dans le baromètre Quali TV de France Télévisions[27].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les huit émissions sont suivies en moyenne par 2,64 millions de téléspectateurs, soit 10,8 % de part d'audience. Les épisodes Donner la vie et Les premiers pas de la pédiatrie réalisent le meilleur score de l'émission en attirant 2,98 millions de téléspectateurs, tandis que l'épisode Greffe : La deuxième chance réalise le pire score avec 2,24 millions de téléspectateurs.
+En 2014, le deuxième numéro Au cœur de l'homme se place à la troisième position dans le baromètre Quali TV de France Télévisions.
 </t>
         </is>
       </c>
